--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 SC.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 SC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
   <si>
     <t>Course</t>
   </si>
@@ -145,13 +145,19 @@
     <t>TAYLOR L</t>
   </si>
   <si>
-    <t>10.47%</t>
-  </si>
-  <si>
-    <t>34.88%</t>
-  </si>
-  <si>
-    <t>44.19%</t>
+    <t>12.26%</t>
+  </si>
+  <si>
+    <t>32.08%</t>
+  </si>
+  <si>
+    <t>45.28%</t>
+  </si>
+  <si>
+    <t>9.43%</t>
+  </si>
+  <si>
+    <t>0.94%</t>
   </si>
   <si>
     <t>BIOL-602</t>
@@ -271,6 +277,24 @@
     <t>8.51%</t>
   </si>
   <si>
+    <t>CHEM-227</t>
+  </si>
+  <si>
+    <t>HARDING K</t>
+  </si>
+  <si>
+    <t>22.41%</t>
+  </si>
+  <si>
+    <t>24.14%</t>
+  </si>
+  <si>
+    <t>20.69%</t>
+  </si>
+  <si>
+    <t>8.62%</t>
+  </si>
+  <si>
     <t>CHEM-228</t>
   </si>
   <si>
@@ -370,27 +394,36 @@
     <t>ALLEN A</t>
   </si>
   <si>
-    <t>24.18%</t>
-  </si>
-  <si>
-    <t>20.88%</t>
-  </si>
-  <si>
-    <t>27.47%</t>
+    <t>19.53%</t>
+  </si>
+  <si>
+    <t>22.66%</t>
+  </si>
+  <si>
+    <t>24.22%</t>
+  </si>
+  <si>
+    <t>17.19%</t>
+  </si>
+  <si>
+    <t>16.41%</t>
+  </si>
+  <si>
+    <t>DO N</t>
   </si>
   <si>
     <t>14.29%</t>
   </si>
   <si>
-    <t>13.19%</t>
-  </si>
-  <si>
-    <t>DO N</t>
-  </si>
-  <si>
     <t>21.43%</t>
   </si>
   <si>
+    <t>AYYURU M</t>
+  </si>
+  <si>
+    <t>6.67%</t>
+  </si>
+  <si>
     <t>GEZER N</t>
   </si>
   <si>
@@ -421,9 +454,6 @@
     <t>13.79%</t>
   </si>
   <si>
-    <t>24.14%</t>
-  </si>
-  <si>
     <t>34.48%</t>
   </si>
   <si>
@@ -433,159 +463,156 @@
     <t>LEWIS J</t>
   </si>
   <si>
-    <t>15.79%</t>
-  </si>
-  <si>
-    <t>47.37%</t>
+    <t>11.36%</t>
+  </si>
+  <si>
+    <t>13.64%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>ROQUE S</t>
+  </si>
+  <si>
+    <t>16.22%</t>
+  </si>
+  <si>
+    <t>13.51%</t>
+  </si>
+  <si>
+    <t>48.65%</t>
+  </si>
+  <si>
+    <t>8.11%</t>
+  </si>
+  <si>
+    <t>MATH-167</t>
+  </si>
+  <si>
+    <t>BARRERA R</t>
+  </si>
+  <si>
+    <t>36.67%</t>
+  </si>
+  <si>
+    <t>23.33%</t>
+  </si>
+  <si>
+    <t>3.33%</t>
+  </si>
+  <si>
+    <t>MATH-251</t>
+  </si>
+  <si>
+    <t>KLEIN G</t>
+  </si>
+  <si>
+    <t>11.67%</t>
+  </si>
+  <si>
+    <t>38.33%</t>
+  </si>
+  <si>
+    <t>MATH-304</t>
+  </si>
+  <si>
+    <t>BAUDIER F</t>
+  </si>
+  <si>
+    <t>43.24%</t>
+  </si>
+  <si>
+    <t>10.81%</t>
+  </si>
+  <si>
+    <t>2.70%</t>
+  </si>
+  <si>
+    <t>GUSTAFSON R</t>
+  </si>
+  <si>
+    <t>18.92%</t>
+  </si>
+  <si>
+    <t>29.73%</t>
+  </si>
+  <si>
+    <t>MATH-308</t>
+  </si>
+  <si>
+    <t>SIFUENTES J</t>
+  </si>
+  <si>
+    <t>9.76%</t>
+  </si>
+  <si>
+    <t>46.34%</t>
+  </si>
+  <si>
+    <t>21.95%</t>
+  </si>
+  <si>
+    <t>12.20%</t>
+  </si>
+  <si>
+    <t>ZEYTUNCU Y</t>
+  </si>
+  <si>
+    <t>39.22%</t>
+  </si>
+  <si>
+    <t>49.02%</t>
+  </si>
+  <si>
+    <t>9.80%</t>
+  </si>
+  <si>
+    <t>1.96%</t>
+  </si>
+  <si>
+    <t>ZEMLYANOVA A</t>
+  </si>
+  <si>
+    <t>52.50%</t>
+  </si>
+  <si>
+    <t>DOS R</t>
+  </si>
+  <si>
+    <t>41.30%</t>
+  </si>
+  <si>
+    <t>32.61%</t>
+  </si>
+  <si>
+    <t>19.57%</t>
+  </si>
+  <si>
+    <t>6.52%</t>
+  </si>
+  <si>
+    <t>MATH-311</t>
+  </si>
+  <si>
+    <t>PITTS J</t>
+  </si>
+  <si>
+    <t>36.84%</t>
+  </si>
+  <si>
+    <t>31.58%</t>
   </si>
   <si>
     <t>5.26%</t>
   </si>
   <si>
-    <t>ROQUE S</t>
-  </si>
-  <si>
-    <t>16.22%</t>
-  </si>
-  <si>
-    <t>13.51%</t>
-  </si>
-  <si>
-    <t>48.65%</t>
-  </si>
-  <si>
-    <t>8.11%</t>
-  </si>
-  <si>
-    <t>MATH-167</t>
-  </si>
-  <si>
-    <t>BARRERA R</t>
-  </si>
-  <si>
-    <t>36.67%</t>
-  </si>
-  <si>
-    <t>23.33%</t>
-  </si>
-  <si>
-    <t>3.33%</t>
-  </si>
-  <si>
-    <t>MATH-251</t>
-  </si>
-  <si>
-    <t>KLEIN G</t>
-  </si>
-  <si>
-    <t>11.67%</t>
-  </si>
-  <si>
-    <t>38.33%</t>
-  </si>
-  <si>
-    <t>MATH-304</t>
-  </si>
-  <si>
-    <t>BAUDIER F</t>
-  </si>
-  <si>
-    <t>43.24%</t>
-  </si>
-  <si>
-    <t>10.81%</t>
-  </si>
-  <si>
-    <t>2.70%</t>
-  </si>
-  <si>
-    <t>GUSTAFSON R</t>
-  </si>
-  <si>
-    <t>18.92%</t>
-  </si>
-  <si>
-    <t>29.73%</t>
-  </si>
-  <si>
-    <t>50.00%</t>
-  </si>
-  <si>
-    <t>MATH-308</t>
-  </si>
-  <si>
-    <t>SIFUENTES J</t>
-  </si>
-  <si>
-    <t>9.76%</t>
-  </si>
-  <si>
-    <t>46.34%</t>
-  </si>
-  <si>
-    <t>21.95%</t>
-  </si>
-  <si>
-    <t>12.20%</t>
-  </si>
-  <si>
-    <t>ZEYTUNCU Y</t>
-  </si>
-  <si>
-    <t>39.22%</t>
-  </si>
-  <si>
-    <t>49.02%</t>
-  </si>
-  <si>
-    <t>9.80%</t>
-  </si>
-  <si>
-    <t>1.96%</t>
-  </si>
-  <si>
-    <t>ZEMLYANOVA A</t>
-  </si>
-  <si>
-    <t>52.50%</t>
-  </si>
-  <si>
-    <t>DOS R</t>
-  </si>
-  <si>
-    <t>41.30%</t>
-  </si>
-  <si>
-    <t>32.61%</t>
-  </si>
-  <si>
-    <t>19.57%</t>
-  </si>
-  <si>
-    <t>6.52%</t>
-  </si>
-  <si>
-    <t>MATH-311</t>
-  </si>
-  <si>
-    <t>PITTS J</t>
-  </si>
-  <si>
-    <t>36.84%</t>
-  </si>
-  <si>
-    <t>31.58%</t>
-  </si>
-  <si>
     <t>NARCOWICH F</t>
   </si>
   <si>
     <t>22.73%</t>
   </si>
   <si>
-    <t>13.64%</t>
-  </si>
-  <si>
     <t>MATH-367</t>
   </si>
   <si>
@@ -718,7 +745,25 @@
     <t>JIMENEZ M</t>
   </si>
   <si>
-    <t>61.70%</t>
+    <t>57.97%</t>
+  </si>
+  <si>
+    <t>27.54%</t>
+  </si>
+  <si>
+    <t>14.49%</t>
+  </si>
+  <si>
+    <t>PHYS-202</t>
+  </si>
+  <si>
+    <t>FIGUEROA E</t>
+  </si>
+  <si>
+    <t>15.56%</t>
+  </si>
+  <si>
+    <t>24.44%</t>
   </si>
   <si>
     <t>PHYS-208</t>
@@ -790,6 +835,15 @@
     <t>STAT-302</t>
   </si>
   <si>
+    <t>ZHANG B</t>
+  </si>
+  <si>
+    <t>29.09%</t>
+  </si>
+  <si>
+    <t>5.45%</t>
+  </si>
+  <si>
     <t>SARKAR A</t>
   </si>
   <si>
@@ -821,6 +875,45 @@
   </si>
   <si>
     <t>1.37%</t>
+  </si>
+  <si>
+    <t>STAT-303</t>
+  </si>
+  <si>
+    <t>GUPTA K</t>
+  </si>
+  <si>
+    <t>23.08%</t>
+  </si>
+  <si>
+    <t>CHOWN J</t>
+  </si>
+  <si>
+    <t>34.62%</t>
+  </si>
+  <si>
+    <t>12.82%</t>
+  </si>
+  <si>
+    <t>6.41%</t>
+  </si>
+  <si>
+    <t>GODDARD S</t>
+  </si>
+  <si>
+    <t>18.37%</t>
+  </si>
+  <si>
+    <t>37.41%</t>
+  </si>
+  <si>
+    <t>34.01%</t>
+  </si>
+  <si>
+    <t>8.16%</t>
+  </si>
+  <si>
+    <t>2.04%</t>
   </si>
   <si>
     <t>STAT-604</t>
@@ -1259,7 +1352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1466,7 +1559,7 @@
         <v>42</v>
       </c>
       <c r="C19" t="n">
-        <v>2.4465</v>
+        <v>2.4472</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -1478,29 +1571,29 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" t="n">
         <v>3.667</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -1514,18 +1607,18 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" t="n">
         <v>3.833</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -1542,18 +1635,18 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
@@ -1570,83 +1663,83 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31" t="n">
         <v>2.268</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C34" t="n">
         <v>2.6</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" t="n">
         <v>3.046</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s">
         <v>19</v>
@@ -1654,27 +1747,27 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40" t="n">
         <v>2.722</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s">
         <v>19</v>
@@ -1682,369 +1775,369 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C43" t="n">
         <v>2.383</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C46" t="n">
-        <v>2.311</v>
+        <v>2.31</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C49" t="n">
-        <v>3.923</v>
+        <v>2.311</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C52" t="n">
-        <v>2.067</v>
+        <v>3.923</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C55" t="n">
-        <v>2.402</v>
+        <v>2.067</v>
       </c>
       <c r="D55" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E55" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H55" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="B56" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" t="n">
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.402</v>
+      </c>
+      <c r="D58" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
+        <v>110</v>
+      </c>
+      <c r="G58" t="s">
+        <v>111</v>
+      </c>
+      <c r="H58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="n">
         <v>2.1877</v>
       </c>
-      <c r="D56" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" t="s">
-        <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
-      </c>
-      <c r="G56" t="s">
-        <v>109</v>
-      </c>
-      <c r="H56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2.253</v>
-      </c>
-      <c r="D57" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="D59" t="s">
         <v>114</v>
       </c>
-      <c r="G57" t="s">
-        <v>96</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="E59" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
+      <c r="F59" t="s">
         <v>116</v>
+      </c>
+      <c r="G59" t="s">
+        <v>117</v>
+      </c>
+      <c r="H59" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="B60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C60" t="n">
-        <v>2.2633</v>
+        <v>2.253</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G60" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H60" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" t="s">
         <v>123</v>
       </c>
-      <c r="C61" t="n">
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.1232</v>
+      </c>
+      <c r="D63" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" t="s">
+        <v>129</v>
+      </c>
+      <c r="H63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" t="n">
         <v>1.929</v>
       </c>
-      <c r="D61" t="s">
-        <v>121</v>
-      </c>
-      <c r="E61" t="s">
-        <v>124</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="D64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" t="s">
         <v>10</v>
       </c>
-      <c r="G61" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2.364</v>
-      </c>
-      <c r="D62" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" t="s">
-        <v>126</v>
-      </c>
-      <c r="F62" t="s">
-        <v>127</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>128</v>
+      <c r="G64" t="s">
+        <v>132</v>
+      </c>
+      <c r="H64" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C65" t="n">
+        <v>2.133</v>
+      </c>
+      <c r="D65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" t="s">
+        <v>105</v>
+      </c>
+      <c r="G65" t="s">
+        <v>135</v>
+      </c>
+      <c r="H65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.364</v>
+      </c>
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" t="s">
+        <v>138</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="n">
         <v>2.5</v>
       </c>
-      <c r="D65" t="s">
-        <v>130</v>
-      </c>
-      <c r="E65" t="s">
-        <v>131</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="D69" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" t="s">
         <v>28</v>
       </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="B68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2.4585</v>
-      </c>
-      <c r="D68" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" t="s">
-        <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
-      </c>
-      <c r="G68" t="s">
-        <v>134</v>
-      </c>
-      <c r="H68" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>137</v>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="B71" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="D71" t="s">
-        <v>139</v>
-      </c>
-      <c r="E71" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
-      </c>
-      <c r="G71" t="s">
-        <v>139</v>
-      </c>
-      <c r="H71" t="s">
-        <v>141</v>
+      <c r="A71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C72" t="n">
-        <v>2.144</v>
+        <v>2.4585</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="F72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G72" t="s">
         <v>145</v>
       </c>
-      <c r="G72" t="s">
-        <v>144</v>
-      </c>
       <c r="H72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2057,249 +2150,249 @@
         <v>148</v>
       </c>
       <c r="C75" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="D75" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" t="s">
+        <v>151</v>
+      </c>
+      <c r="G75" t="s">
+        <v>149</v>
+      </c>
+      <c r="H75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.144</v>
+      </c>
+      <c r="D76" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76" t="s">
+        <v>154</v>
+      </c>
+      <c r="F76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G76" t="s">
+        <v>154</v>
+      </c>
+      <c r="H76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" t="n">
         <v>2.933</v>
       </c>
-      <c r="D75" t="s">
-        <v>49</v>
-      </c>
-      <c r="E75" t="s">
-        <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
-      </c>
-      <c r="G75" t="s">
-        <v>151</v>
-      </c>
-      <c r="H75" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="B78" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2.1455</v>
-      </c>
-      <c r="D78" t="s">
-        <v>154</v>
-      </c>
-      <c r="E78" t="s">
-        <v>131</v>
-      </c>
-      <c r="F78" t="s">
-        <v>155</v>
-      </c>
-      <c r="G78" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>156</v>
+      <c r="D79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" t="s">
+        <v>159</v>
+      </c>
+      <c r="F79" t="s">
+        <v>160</v>
+      </c>
+      <c r="G79" t="s">
+        <v>161</v>
+      </c>
+      <c r="H79" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="B81" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3.243</v>
-      </c>
-      <c r="D81" t="s">
-        <v>158</v>
-      </c>
-      <c r="E81" t="s">
-        <v>158</v>
-      </c>
-      <c r="F81" t="s">
-        <v>159</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" t="s">
-        <v>160</v>
+      <c r="A81" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C82" t="n">
-        <v>2.73</v>
+        <v>2.1455</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E82" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F82" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G82" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="B83" t="s">
-        <v>142</v>
-      </c>
-      <c r="C83" t="n">
-        <v>3</v>
-      </c>
-      <c r="D83" t="s">
-        <v>49</v>
-      </c>
-      <c r="E83" t="s">
-        <v>164</v>
-      </c>
-      <c r="F83" t="s">
         <v>25</v>
       </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" t="s">
-        <v>25</v>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>165</v>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="D85" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
+        <v>169</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C86" t="n">
-        <v>2.342</v>
+        <v>2.73</v>
       </c>
       <c r="D86" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E86" t="s">
         <v>168</v>
       </c>
       <c r="F86" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G86" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="H86" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="B87" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C87" t="n">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>51</v>
+      </c>
+      <c r="E87" t="s">
+        <v>151</v>
+      </c>
+      <c r="F87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="B90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.342</v>
+      </c>
+      <c r="D90" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" t="s">
+        <v>177</v>
+      </c>
+      <c r="F90" t="s">
+        <v>178</v>
+      </c>
+      <c r="G90" t="s">
+        <v>179</v>
+      </c>
+      <c r="H90" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" t="n">
         <v>3.235</v>
       </c>
-      <c r="D87" t="s">
-        <v>172</v>
-      </c>
-      <c r="E87" t="s">
-        <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="B88" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88" t="n">
-        <v>3</v>
-      </c>
-      <c r="D88" t="s">
-        <v>65</v>
-      </c>
-      <c r="E88" t="s">
-        <v>177</v>
-      </c>
-      <c r="F88" t="s">
-        <v>28</v>
-      </c>
-      <c r="G88" t="s">
-        <v>67</v>
-      </c>
-      <c r="H88" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="B89" t="s">
-        <v>178</v>
-      </c>
-      <c r="C89" t="n">
-        <v>3.203</v>
-      </c>
-      <c r="D89" t="s">
-        <v>179</v>
-      </c>
-      <c r="E89" t="s">
-        <v>180</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="D91" t="s">
         <v>181</v>
       </c>
-      <c r="G89" t="s">
+      <c r="E91" t="s">
         <v>182</v>
       </c>
-      <c r="H89" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
+      <c r="F91" t="s">
         <v>183</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" t="n">
-        <v>2.632</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="E92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F92" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="G92" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="H92" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2307,19 +2400,19 @@
         <v>187</v>
       </c>
       <c r="C93" t="n">
-        <v>2.636</v>
+        <v>3.203</v>
       </c>
       <c r="D93" t="s">
         <v>188</v>
       </c>
       <c r="E93" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="F93" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="G93" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H93" t="s">
         <v>19</v>
@@ -2327,271 +2420,271 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="B96" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C96" t="n">
+        <v>2.632</v>
+      </c>
+      <c r="D96" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96" t="s">
+        <v>194</v>
+      </c>
+      <c r="F96" t="s">
+        <v>195</v>
+      </c>
+      <c r="G96" t="s">
+        <v>196</v>
+      </c>
+      <c r="H96" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.636</v>
+      </c>
+      <c r="D97" t="s">
+        <v>198</v>
+      </c>
+      <c r="E97" t="s">
+        <v>72</v>
+      </c>
+      <c r="F97" t="s">
+        <v>72</v>
+      </c>
+      <c r="G97" t="s">
+        <v>150</v>
+      </c>
+      <c r="H97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="B100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" t="n">
         <v>2.947</v>
       </c>
-      <c r="D96" t="s">
-        <v>107</v>
-      </c>
-      <c r="E96" t="s">
-        <v>192</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
-      </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="B99" t="s">
-        <v>171</v>
-      </c>
-      <c r="C99" t="n">
+      <c r="D100" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" t="s">
+        <v>201</v>
+      </c>
+      <c r="F100" t="s">
+        <v>195</v>
+      </c>
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" t="n">
         <v>3.125</v>
       </c>
-      <c r="D99" t="s">
-        <v>101</v>
-      </c>
-      <c r="E99" t="s">
-        <v>164</v>
-      </c>
-      <c r="F99" t="s">
-        <v>102</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="B102" t="s">
-        <v>195</v>
-      </c>
-      <c r="C102" t="n">
+      <c r="D103" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103" t="s">
+        <v>151</v>
+      </c>
+      <c r="F103" t="s">
+        <v>110</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="B106" t="s">
+        <v>204</v>
+      </c>
+      <c r="C106" t="n">
         <v>3.387</v>
       </c>
-      <c r="D102" t="s">
-        <v>196</v>
-      </c>
-      <c r="E102" t="s">
-        <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="B105" t="s">
-        <v>201</v>
-      </c>
-      <c r="C105" t="n">
+      <c r="D106" t="s">
+        <v>205</v>
+      </c>
+      <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
+        <v>207</v>
+      </c>
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" t="n">
         <v>2.364</v>
       </c>
-      <c r="D105" t="s">
-        <v>189</v>
-      </c>
-      <c r="E105" t="s">
-        <v>70</v>
-      </c>
-      <c r="F105" t="s">
-        <v>126</v>
-      </c>
-      <c r="G105" t="s">
-        <v>189</v>
-      </c>
-      <c r="H105" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="B108" t="s">
-        <v>203</v>
-      </c>
-      <c r="C108" t="n">
+      <c r="D109" t="s">
+        <v>150</v>
+      </c>
+      <c r="E109" t="s">
+        <v>72</v>
+      </c>
+      <c r="F109" t="s">
+        <v>137</v>
+      </c>
+      <c r="G109" t="s">
+        <v>150</v>
+      </c>
+      <c r="H109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" t="s">
+        <v>212</v>
+      </c>
+      <c r="C112" t="n">
         <v>3.067</v>
       </c>
-      <c r="D108" t="s">
-        <v>204</v>
-      </c>
-      <c r="E108" t="s">
-        <v>97</v>
-      </c>
-      <c r="F108" t="s">
-        <v>98</v>
-      </c>
-      <c r="G108" t="s">
-        <v>98</v>
-      </c>
-      <c r="H108" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="B111" t="s">
-        <v>206</v>
-      </c>
-      <c r="C111" t="n">
+      <c r="D112" t="s">
+        <v>213</v>
+      </c>
+      <c r="E112" t="s">
+        <v>105</v>
+      </c>
+      <c r="F112" t="s">
+        <v>106</v>
+      </c>
+      <c r="G112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" t="n">
         <v>2.783</v>
       </c>
-      <c r="D111" t="s">
-        <v>207</v>
-      </c>
-      <c r="E111" t="s">
-        <v>208</v>
-      </c>
-      <c r="F111" t="s">
-        <v>209</v>
-      </c>
-      <c r="G111" t="s">
-        <v>210</v>
-      </c>
-      <c r="H111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="B114" t="s">
-        <v>212</v>
-      </c>
-      <c r="C114" t="n">
+      <c r="D115" t="s">
+        <v>216</v>
+      </c>
+      <c r="E115" t="s">
+        <v>217</v>
+      </c>
+      <c r="F115" t="s">
+        <v>218</v>
+      </c>
+      <c r="G115" t="s">
+        <v>219</v>
+      </c>
+      <c r="H115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="B118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" t="n">
         <v>3.4</v>
       </c>
-      <c r="D114" t="s">
-        <v>213</v>
-      </c>
-      <c r="E114" t="s">
-        <v>214</v>
-      </c>
-      <c r="F114" t="s">
-        <v>215</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
-      <c r="H114" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="B117" t="s">
-        <v>217</v>
-      </c>
-      <c r="C117" t="n">
-        <v>3.562</v>
-      </c>
-      <c r="D117" t="s">
-        <v>218</v>
-      </c>
-      <c r="E117" t="s">
-        <v>101</v>
-      </c>
-      <c r="F117" t="s">
-        <v>219</v>
-      </c>
-      <c r="G117" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="s">
-        <v>220</v>
+      <c r="D118" t="s">
+        <v>222</v>
+      </c>
+      <c r="E118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F118" t="s">
+        <v>224</v>
+      </c>
+      <c r="G118" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="B120" t="s">
-        <v>221</v>
-      </c>
-      <c r="C120" t="n">
-        <v>4</v>
-      </c>
-      <c r="D120" t="s">
-        <v>54</v>
-      </c>
-      <c r="E120" t="s">
-        <v>19</v>
-      </c>
-      <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" t="s">
-        <v>19</v>
+      <c r="A120" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="B121" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C121" t="n">
-        <v>4</v>
+        <v>3.562</v>
       </c>
       <c r="D121" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="E121" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
@@ -2602,18 +2695,18 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="B124" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C124" t="n">
         <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E124" t="s">
         <v>19</v>
@@ -2628,332 +2721,332 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
-      <c r="A126" t="s">
-        <v>225</v>
+    <row r="125" spans="1:8">
+      <c r="B125" t="s">
+        <v>231</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>56</v>
+      </c>
+      <c r="E125" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="B127" t="s">
-        <v>184</v>
-      </c>
-      <c r="C127" t="n">
+      <c r="A127" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="B128" t="s">
+        <v>233</v>
+      </c>
+      <c r="C128" t="n">
         <v>4</v>
       </c>
-      <c r="D127" t="s">
-        <v>54</v>
-      </c>
-      <c r="E127" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s">
-        <v>19</v>
-      </c>
-      <c r="H127" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" t="s">
-        <v>226</v>
+      <c r="D128" t="s">
+        <v>56</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="B130" t="s">
-        <v>227</v>
-      </c>
-      <c r="C130" t="n">
+      <c r="A130" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="B131" t="s">
+        <v>193</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>56</v>
+      </c>
+      <c r="E131" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s">
+        <v>19</v>
+      </c>
+      <c r="H131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="B134" t="s">
+        <v>236</v>
+      </c>
+      <c r="C134" t="n">
         <v>3.9445</v>
       </c>
-      <c r="D130" t="s">
-        <v>228</v>
-      </c>
-      <c r="E130" t="s">
-        <v>141</v>
-      </c>
-      <c r="F130" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" t="s">
-        <v>19</v>
-      </c>
-      <c r="H130" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="B133" t="s">
-        <v>230</v>
-      </c>
-      <c r="C133" t="n">
+      <c r="D134" t="s">
+        <v>237</v>
+      </c>
+      <c r="E134" t="s">
+        <v>196</v>
+      </c>
+      <c r="F134" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="B137" t="s">
+        <v>239</v>
+      </c>
+      <c r="C137" t="n">
         <v>3.6</v>
       </c>
-      <c r="D133" t="s">
-        <v>231</v>
-      </c>
-      <c r="E133" t="s">
-        <v>66</v>
-      </c>
-      <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
-        <v>19</v>
-      </c>
-      <c r="H133" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="B136" t="s">
-        <v>233</v>
-      </c>
-      <c r="C136" t="n">
-        <v>3.465</v>
-      </c>
-      <c r="D136" t="s">
-        <v>234</v>
-      </c>
-      <c r="E136" t="s">
-        <v>82</v>
-      </c>
-      <c r="F136" t="s">
-        <v>83</v>
-      </c>
-      <c r="G136" t="s">
-        <v>19</v>
-      </c>
-      <c r="H136" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" t="s">
-        <v>235</v>
+      <c r="D137" t="s">
+        <v>240</v>
+      </c>
+      <c r="E137" t="s">
+        <v>68</v>
+      </c>
+      <c r="F137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s">
+        <v>19</v>
+      </c>
+      <c r="H137" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="B139" t="s">
-        <v>236</v>
-      </c>
-      <c r="C139" t="n">
+      <c r="A139" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="B140" t="s">
+        <v>242</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3.4282</v>
+      </c>
+      <c r="D140" t="s">
+        <v>243</v>
+      </c>
+      <c r="E140" t="s">
+        <v>244</v>
+      </c>
+      <c r="F140" t="s">
+        <v>245</v>
+      </c>
+      <c r="G140" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="B143" t="s">
+        <v>247</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.2845</v>
+      </c>
+      <c r="D143" t="s">
+        <v>248</v>
+      </c>
+      <c r="E143" t="s">
+        <v>249</v>
+      </c>
+      <c r="F143" t="s">
+        <v>68</v>
+      </c>
+      <c r="G143" t="s">
+        <v>106</v>
+      </c>
+      <c r="H143" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="B146" t="s">
+        <v>251</v>
+      </c>
+      <c r="C146" t="n">
         <v>2.884</v>
       </c>
-      <c r="D139" t="s">
-        <v>96</v>
-      </c>
-      <c r="E139" t="s">
-        <v>237</v>
-      </c>
-      <c r="F139" t="s">
-        <v>238</v>
-      </c>
-      <c r="G139" t="s">
-        <v>19</v>
-      </c>
-      <c r="H139" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="B142" t="s">
-        <v>241</v>
-      </c>
-      <c r="C142" t="n">
+      <c r="D146" t="s">
+        <v>104</v>
+      </c>
+      <c r="E146" t="s">
+        <v>252</v>
+      </c>
+      <c r="F146" t="s">
+        <v>253</v>
+      </c>
+      <c r="G146" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="B149" t="s">
+        <v>256</v>
+      </c>
+      <c r="C149" t="n">
         <v>2.6665</v>
       </c>
-      <c r="D142" t="s">
-        <v>188</v>
-      </c>
-      <c r="E142" t="s">
-        <v>242</v>
-      </c>
-      <c r="F142" t="s">
-        <v>70</v>
-      </c>
-      <c r="G142" t="s">
-        <v>243</v>
-      </c>
-      <c r="H142" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="B145" t="s">
-        <v>246</v>
-      </c>
-      <c r="C145" t="n">
+      <c r="D149" t="s">
+        <v>198</v>
+      </c>
+      <c r="E149" t="s">
+        <v>257</v>
+      </c>
+      <c r="F149" t="s">
+        <v>72</v>
+      </c>
+      <c r="G149" t="s">
+        <v>258</v>
+      </c>
+      <c r="H149" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="B152" t="s">
+        <v>261</v>
+      </c>
+      <c r="C152" t="n">
         <v>3</v>
       </c>
-      <c r="D145" t="s">
-        <v>208</v>
-      </c>
-      <c r="E145" t="s">
-        <v>209</v>
-      </c>
-      <c r="F145" t="s">
-        <v>208</v>
-      </c>
-      <c r="G145" t="s">
-        <v>19</v>
-      </c>
-      <c r="H145" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="B148" t="s">
-        <v>248</v>
-      </c>
-      <c r="C148" t="n">
+      <c r="D152" t="s">
+        <v>217</v>
+      </c>
+      <c r="E152" t="s">
+        <v>218</v>
+      </c>
+      <c r="F152" t="s">
+        <v>217</v>
+      </c>
+      <c r="G152" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="B155" t="s">
+        <v>263</v>
+      </c>
+      <c r="C155" t="n">
         <v>4</v>
       </c>
-      <c r="D148" t="s">
-        <v>54</v>
-      </c>
-      <c r="E148" t="s">
-        <v>19</v>
-      </c>
-      <c r="F148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" t="s">
-        <v>19</v>
-      </c>
-      <c r="H148" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="B151" t="s">
-        <v>250</v>
-      </c>
-      <c r="C151" t="n">
-        <v>4</v>
-      </c>
-      <c r="D151" t="s">
-        <v>54</v>
-      </c>
-      <c r="E151" t="s">
-        <v>19</v>
-      </c>
-      <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s">
-        <v>19</v>
-      </c>
-      <c r="H151" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="B154" t="s">
-        <v>252</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2.697</v>
-      </c>
-      <c r="D154" t="s">
-        <v>253</v>
-      </c>
-      <c r="E154" t="s">
-        <v>254</v>
-      </c>
-      <c r="F154" t="s">
-        <v>255</v>
-      </c>
-      <c r="G154" t="s">
-        <v>256</v>
-      </c>
-      <c r="H154" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" t="s">
-        <v>257</v>
+      <c r="D155" t="s">
+        <v>56</v>
+      </c>
+      <c r="E155" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" t="s">
+        <v>19</v>
+      </c>
+      <c r="G155" t="s">
+        <v>19</v>
+      </c>
+      <c r="H155" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="B157" t="s">
-        <v>258</v>
-      </c>
-      <c r="C157" t="n">
-        <v>2.915</v>
-      </c>
-      <c r="D157" t="s">
-        <v>259</v>
-      </c>
-      <c r="E157" t="s">
-        <v>260</v>
-      </c>
-      <c r="F157" t="s">
-        <v>261</v>
-      </c>
-      <c r="G157" t="s">
-        <v>262</v>
-      </c>
-      <c r="H157" t="s">
-        <v>263</v>
+      <c r="A157" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="B158" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C158" t="n">
-        <v>3.288</v>
+        <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="E158" t="s">
-        <v>266</v>
+        <v>19</v>
       </c>
       <c r="F158" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="G158" t="s">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="H158" t="s">
         <v>19</v>
@@ -2961,243 +3054,284 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="B161" t="s">
+        <v>267</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.697</v>
+      </c>
+      <c r="D161" t="s">
+        <v>268</v>
+      </c>
+      <c r="E161" t="s">
+        <v>269</v>
+      </c>
+      <c r="F161" t="s">
         <v>270</v>
       </c>
-      <c r="C161" t="n">
-        <v>3.4797</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="G161" t="s">
         <v>271</v>
       </c>
-      <c r="E161" t="s">
-        <v>272</v>
-      </c>
-      <c r="F161" t="s">
-        <v>273</v>
-      </c>
-      <c r="G161" t="s">
-        <v>274</v>
-      </c>
       <c r="H161" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="B164" t="s">
+        <v>273</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="D164" t="s">
+        <v>274</v>
+      </c>
+      <c r="E164" t="s">
+        <v>137</v>
+      </c>
+      <c r="F164" t="s">
+        <v>274</v>
+      </c>
+      <c r="G164" t="s">
+        <v>275</v>
+      </c>
+      <c r="H164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="B165" t="s">
         <v>276</v>
       </c>
-      <c r="C164" t="n">
-        <v>3.1565</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="C165" t="n">
+        <v>2.915</v>
+      </c>
+      <c r="D165" t="s">
         <v>277</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E165" t="s">
         <v>278</v>
       </c>
-      <c r="F164" t="s">
-        <v>160</v>
-      </c>
-      <c r="G164" t="s">
-        <v>90</v>
-      </c>
-      <c r="H164" t="s">
-        <v>160</v>
+      <c r="F165" t="s">
+        <v>279</v>
+      </c>
+      <c r="G165" t="s">
+        <v>280</v>
+      </c>
+      <c r="H165" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="B167" t="s">
-        <v>280</v>
-      </c>
-      <c r="C167" t="n">
-        <v>3.1335</v>
-      </c>
-      <c r="D167" t="s">
-        <v>164</v>
-      </c>
-      <c r="E167" t="s">
-        <v>130</v>
-      </c>
-      <c r="F167" t="s">
-        <v>219</v>
-      </c>
-      <c r="G167" t="s">
-        <v>19</v>
-      </c>
-      <c r="H167" t="s">
-        <v>219</v>
+      <c r="B166" t="s">
+        <v>282</v>
+      </c>
+      <c r="C166" t="n">
+        <v>3.288</v>
+      </c>
+      <c r="D166" t="s">
+        <v>283</v>
+      </c>
+      <c r="E166" t="s">
+        <v>284</v>
+      </c>
+      <c r="F166" t="s">
+        <v>285</v>
+      </c>
+      <c r="G166" t="s">
+        <v>286</v>
+      </c>
+      <c r="H166" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" t="s">
-        <v>281</v>
+      <c r="B169" t="s">
+        <v>288</v>
+      </c>
+      <c r="C169" t="n">
+        <v>3.231</v>
+      </c>
+      <c r="D169" t="s">
+        <v>32</v>
+      </c>
+      <c r="E169" t="s">
+        <v>31</v>
+      </c>
+      <c r="F169" t="s">
+        <v>289</v>
+      </c>
+      <c r="G169" t="s">
+        <v>19</v>
+      </c>
+      <c r="H169" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="B170" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C170" t="n">
-        <v>3.7015</v>
+        <v>2.398</v>
       </c>
       <c r="D170" t="s">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="E170" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F170" t="s">
-        <v>285</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="H170" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="s">
-        <v>286</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="B171" t="s">
+        <v>294</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2.6205</v>
+      </c>
+      <c r="D171" t="s">
+        <v>295</v>
+      </c>
+      <c r="E171" t="s">
+        <v>296</v>
+      </c>
+      <c r="F171" t="s">
+        <v>297</v>
+      </c>
+      <c r="G171" t="s">
+        <v>298</v>
+      </c>
+      <c r="H171" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="B173" t="s">
-        <v>287</v>
-      </c>
-      <c r="C173" t="n">
-        <v>3.2835</v>
-      </c>
-      <c r="D173" t="s">
-        <v>288</v>
-      </c>
-      <c r="E173" t="s">
-        <v>131</v>
-      </c>
-      <c r="F173" t="s">
-        <v>219</v>
-      </c>
-      <c r="G173" t="s">
-        <v>219</v>
-      </c>
-      <c r="H173" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" t="s">
-        <v>289</v>
+      <c r="A173" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="B174" t="s">
+        <v>301</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.4797</v>
+      </c>
+      <c r="D174" t="s">
+        <v>302</v>
+      </c>
+      <c r="E174" t="s">
+        <v>303</v>
+      </c>
+      <c r="F174" t="s">
+        <v>304</v>
+      </c>
+      <c r="G174" t="s">
+        <v>305</v>
+      </c>
+      <c r="H174" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="B176" t="s">
-        <v>290</v>
-      </c>
-      <c r="C176" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D176" t="s">
-        <v>164</v>
-      </c>
-      <c r="E176" t="s">
-        <v>164</v>
-      </c>
-      <c r="F176" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" t="s">
-        <v>19</v>
-      </c>
-      <c r="H176" t="s">
-        <v>19</v>
+      <c r="A176" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="B177" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="C177" t="n">
-        <v>3.629</v>
+        <v>3.1565</v>
       </c>
       <c r="D177" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E177" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="G177" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="H177" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="B180" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="C180" t="n">
-        <v>3.412</v>
+        <v>3.1335</v>
       </c>
       <c r="D180" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
       <c r="E180" t="s">
-        <v>296</v>
+        <v>141</v>
       </c>
       <c r="F180" t="s">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c r="G180" t="s">
         <v>19</v>
       </c>
       <c r="H180" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="B183" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="C183" t="n">
-        <v>3.6547</v>
+        <v>3.7015</v>
       </c>
       <c r="D183" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E183" t="s">
-        <v>65</v>
+        <v>315</v>
       </c>
       <c r="F183" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="G183" t="s">
         <v>19</v>
@@ -3208,29 +3342,164 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="B186" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C186" t="n">
+        <v>3.2835</v>
+      </c>
+      <c r="D186" t="s">
+        <v>319</v>
+      </c>
+      <c r="E186" t="s">
+        <v>142</v>
+      </c>
+      <c r="F186" t="s">
+        <v>228</v>
+      </c>
+      <c r="G186" t="s">
+        <v>228</v>
+      </c>
+      <c r="H186" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="B189" t="s">
+        <v>321</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D189" t="s">
+        <v>151</v>
+      </c>
+      <c r="E189" t="s">
+        <v>151</v>
+      </c>
+      <c r="F189" t="s">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s">
+        <v>19</v>
+      </c>
+      <c r="H189" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="B190" t="s">
+        <v>307</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.629</v>
+      </c>
+      <c r="D190" t="s">
+        <v>322</v>
+      </c>
+      <c r="E190" t="s">
+        <v>323</v>
+      </c>
+      <c r="F190" t="s">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s">
+        <v>19</v>
+      </c>
+      <c r="H190" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="B193" t="s">
+        <v>325</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.412</v>
+      </c>
+      <c r="D193" t="s">
+        <v>326</v>
+      </c>
+      <c r="E193" t="s">
+        <v>327</v>
+      </c>
+      <c r="F193" t="s">
+        <v>328</v>
+      </c>
+      <c r="G193" t="s">
+        <v>19</v>
+      </c>
+      <c r="H193" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="B196" t="s">
+        <v>313</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.6547</v>
+      </c>
+      <c r="D196" t="s">
+        <v>330</v>
+      </c>
+      <c r="E196" t="s">
+        <v>67</v>
+      </c>
+      <c r="F196" t="s">
+        <v>331</v>
+      </c>
+      <c r="G196" t="s">
+        <v>19</v>
+      </c>
+      <c r="H196" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="B199" t="s">
+        <v>333</v>
+      </c>
+      <c r="C199" t="n">
         <v>4</v>
       </c>
-      <c r="D186" t="s">
-        <v>54</v>
-      </c>
-      <c r="E186" t="s">
-        <v>19</v>
-      </c>
-      <c r="F186" t="s">
-        <v>19</v>
-      </c>
-      <c r="G186" t="s">
-        <v>19</v>
-      </c>
-      <c r="H186" t="s">
+      <c r="D199" t="s">
+        <v>56</v>
+      </c>
+      <c r="E199" t="s">
+        <v>19</v>
+      </c>
+      <c r="F199" t="s">
+        <v>19</v>
+      </c>
+      <c r="G199" t="s">
+        <v>19</v>
+      </c>
+      <c r="H199" t="s">
         <v>19</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 SC.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 SC.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="362">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ASTR-101</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>2.38%</t>
   </si>
   <si>
+    <t>0.00%</t>
+  </si>
+  <si>
     <t>ASTR-102</t>
   </si>
   <si>
@@ -73,9 +79,6 @@
     <t>15.38%</t>
   </si>
   <si>
-    <t>0.00%</t>
-  </si>
-  <si>
     <t>FORREST B</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>12.50%</t>
   </si>
   <si>
+    <t>4.00%</t>
+  </si>
+  <si>
     <t>BIOL-214</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t>3.54%</t>
   </si>
   <si>
+    <t>4.24%</t>
+  </si>
+  <si>
     <t>BIOL-320</t>
   </si>
   <si>
@@ -160,6 +169,9 @@
     <t>0.94%</t>
   </si>
   <si>
+    <t>2.75%</t>
+  </si>
+  <si>
     <t>BIOL-602</t>
   </si>
   <si>
@@ -208,6 +220,9 @@
     <t>7.32%</t>
   </si>
   <si>
+    <t>6.82%</t>
+  </si>
+  <si>
     <t>CHEM-102</t>
   </si>
   <si>
@@ -229,6 +244,9 @@
     <t>2.50%</t>
   </si>
   <si>
+    <t>11.11%</t>
+  </si>
+  <si>
     <t>CHEM-111</t>
   </si>
   <si>
@@ -277,6 +295,9 @@
     <t>8.51%</t>
   </si>
   <si>
+    <t>4.08%</t>
+  </si>
+  <si>
     <t>CHEM-227</t>
   </si>
   <si>
@@ -295,6 +316,9 @@
     <t>8.62%</t>
   </si>
   <si>
+    <t>4.92%</t>
+  </si>
+  <si>
     <t>CHEM-228</t>
   </si>
   <si>
@@ -313,6 +337,9 @@
     <t>5.41%</t>
   </si>
   <si>
+    <t>5.13%</t>
+  </si>
+  <si>
     <t>CHEM-491</t>
   </si>
   <si>
@@ -337,6 +364,9 @@
     <t>13.33%</t>
   </si>
   <si>
+    <t>6.25%</t>
+  </si>
+  <si>
     <t>MATH-141</t>
   </si>
   <si>
@@ -355,6 +385,9 @@
     <t>9.38%</t>
   </si>
   <si>
+    <t>13.51%</t>
+  </si>
+  <si>
     <t>KESSLER J</t>
   </si>
   <si>
@@ -373,6 +406,9 @@
     <t>14.91%</t>
   </si>
   <si>
+    <t>4.20%</t>
+  </si>
+  <si>
     <t>KAHLIG J</t>
   </si>
   <si>
@@ -409,6 +445,9 @@
     <t>16.41%</t>
   </si>
   <si>
+    <t>7.91%</t>
+  </si>
+  <si>
     <t>DO N</t>
   </si>
   <si>
@@ -457,6 +496,9 @@
     <t>34.48%</t>
   </si>
   <si>
+    <t>6.45%</t>
+  </si>
+  <si>
     <t>MATH-152</t>
   </si>
   <si>
@@ -472,15 +514,15 @@
     <t>50.00%</t>
   </si>
   <si>
+    <t>10.20%</t>
+  </si>
+  <si>
     <t>ROQUE S</t>
   </si>
   <si>
     <t>16.22%</t>
   </si>
   <si>
-    <t>13.51%</t>
-  </si>
-  <si>
     <t>48.65%</t>
   </si>
   <si>
@@ -514,6 +556,9 @@
     <t>38.33%</t>
   </si>
   <si>
+    <t>9.09%</t>
+  </si>
+  <si>
     <t>MATH-304</t>
   </si>
   <si>
@@ -571,6 +616,9 @@
     <t>1.96%</t>
   </si>
   <si>
+    <t>1.92%</t>
+  </si>
+  <si>
     <t>ZEMLYANOVA A</t>
   </si>
   <si>
@@ -592,6 +640,9 @@
     <t>6.52%</t>
   </si>
   <si>
+    <t>2.13%</t>
+  </si>
+  <si>
     <t>MATH-311</t>
   </si>
   <si>
@@ -607,6 +658,9 @@
     <t>5.26%</t>
   </si>
   <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>NARCOWICH F</t>
   </si>
   <si>
@@ -637,9 +691,6 @@
     <t>35.48%</t>
   </si>
   <si>
-    <t>6.45%</t>
-  </si>
-  <si>
     <t>3.23%</t>
   </si>
   <si>
@@ -691,6 +742,9 @@
     <t>12.00%</t>
   </si>
   <si>
+    <t>3.85%</t>
+  </si>
+  <si>
     <t>MATH-602</t>
   </si>
   <si>
@@ -700,9 +754,6 @@
     <t>62.50%</t>
   </si>
   <si>
-    <t>6.25%</t>
-  </si>
-  <si>
     <t>MATH-663</t>
   </si>
   <si>
@@ -766,6 +817,9 @@
     <t>24.44%</t>
   </si>
   <si>
+    <t>4.26%</t>
+  </si>
+  <si>
     <t>PHYS-208</t>
   </si>
   <si>
@@ -781,6 +835,9 @@
     <t>3.53%</t>
   </si>
   <si>
+    <t>2.30%</t>
+  </si>
+  <si>
     <t>PHYS-218</t>
   </si>
   <si>
@@ -790,18 +847,21 @@
     <t>34.09%</t>
   </si>
   <si>
-    <t>9.09%</t>
-  </si>
-  <si>
     <t>2.27%</t>
   </si>
   <si>
+    <t>2.22%</t>
+  </si>
+  <si>
     <t>PHYS-222</t>
   </si>
   <si>
     <t>YEAGER S</t>
   </si>
   <si>
+    <t>4.17%</t>
+  </si>
+  <si>
     <t>PHYS-491</t>
   </si>
   <si>
@@ -832,6 +892,9 @@
     <t>4.49%</t>
   </si>
   <si>
+    <t>2.20%</t>
+  </si>
+  <si>
     <t>STAT-302</t>
   </si>
   <si>
@@ -844,6 +907,9 @@
     <t>5.45%</t>
   </si>
   <si>
+    <t>6.78%</t>
+  </si>
+  <si>
     <t>SARKAR A</t>
   </si>
   <si>
@@ -862,6 +928,9 @@
     <t>3.09%</t>
   </si>
   <si>
+    <t>3.00%</t>
+  </si>
+  <si>
     <t>QU Y</t>
   </si>
   <si>
@@ -877,6 +946,9 @@
     <t>1.37%</t>
   </si>
   <si>
+    <t>1.35%</t>
+  </si>
+  <si>
     <t>STAT-303</t>
   </si>
   <si>
@@ -898,6 +970,9 @@
     <t>6.41%</t>
   </si>
   <si>
+    <t>8.24%</t>
+  </si>
+  <si>
     <t>GODDARD S</t>
   </si>
   <si>
@@ -916,6 +991,9 @@
     <t>2.04%</t>
   </si>
   <si>
+    <t>2.00%</t>
+  </si>
+  <si>
     <t>STAT-604</t>
   </si>
   <si>
@@ -934,6 +1012,9 @@
     <t>1.89%</t>
   </si>
   <si>
+    <t>3.64%</t>
+  </si>
+  <si>
     <t>STAT-608</t>
   </si>
   <si>
@@ -946,6 +1027,9 @@
     <t>54.05%</t>
   </si>
   <si>
+    <t>2.63%</t>
+  </si>
+  <si>
     <t>STAT-626</t>
   </si>
   <si>
@@ -988,6 +1072,9 @@
     <t>37.74%</t>
   </si>
   <si>
+    <t>1.85%</t>
+  </si>
+  <si>
     <t>STAT-652</t>
   </si>
   <si>
@@ -1007,9 +1094,6 @@
   </si>
   <si>
     <t>67.50%</t>
-  </si>
-  <si>
-    <t>5.00%</t>
   </si>
   <si>
     <t>STAT-685</t>
@@ -1053,12 +1137,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1352,15 +1435,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1385,2122 +1468,2362 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>2.595</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>3.846</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>3.926</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>2.417</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
         <v>2.5667</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C19" t="n">
         <v>2.4472</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C22" t="n">
         <v>3.667</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C25" t="n">
         <v>3.833</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C31" t="n">
         <v>2.268</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C34" t="n">
         <v>2.6</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C37" t="n">
         <v>3.046</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C40" t="n">
         <v>2.722</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C43" t="n">
         <v>2.383</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C46" t="n">
         <v>2.31</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G46" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C49" t="n">
         <v>2.311</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G49" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C52" t="n">
         <v>3.923</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C55" t="n">
         <v>2.067</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G55" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C58" t="n">
         <v>2.402</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G58" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C59" t="n">
         <v>2.1877</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G59" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C60" t="n">
         <v>2.253</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F60" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G60" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C63" t="n">
         <v>2.1232</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F63" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G63" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C64" t="n">
         <v>1.929</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C65" t="n">
         <v>2.133</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F65" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G65" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C66" t="n">
         <v>2.364</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E66" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F66" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H66" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C69" t="n">
         <v>2.5</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E69" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C72" t="n">
         <v>2.4585</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E72" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F72" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G72" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="H72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I72" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C75" t="n">
         <v>2.005</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E75" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F75" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G75" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="H75" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C76" t="n">
         <v>2.144</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="F76" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G76" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="H76" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C79" t="n">
         <v>2.933</v>
       </c>
       <c r="D79" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E79" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="F79" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G79" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H79" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C82" t="n">
         <v>2.1455</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="E82" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C85" t="n">
         <v>3.243</v>
       </c>
       <c r="D85" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E85" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="F85" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G85" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H85" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C86" t="n">
         <v>2.73</v>
       </c>
       <c r="D86" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E86" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="F86" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G86" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="H86" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C87" t="n">
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E87" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G87" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H87" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C90" t="n">
         <v>2.342</v>
       </c>
       <c r="D90" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G90" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="H90" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C91" t="n">
         <v>3.235</v>
       </c>
       <c r="D91" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="E91" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="F91" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H91" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I91" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C92" t="n">
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E92" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C93" t="n">
         <v>3.203</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E93" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="F93" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="G93" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I93" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="C96" t="n">
         <v>2.632</v>
       </c>
       <c r="D96" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E96" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F96" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G96" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H96" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I96" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C97" t="n">
         <v>2.636</v>
       </c>
       <c r="D97" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="E97" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F97" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G97" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H97" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C100" t="n">
         <v>2.947</v>
       </c>
       <c r="D100" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E100" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F100" t="s">
+        <v>212</v>
+      </c>
+      <c r="G100" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="B103" t="s">
         <v>195</v>
-      </c>
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" t="s">
-        <v>180</v>
       </c>
       <c r="C103" t="n">
         <v>3.125</v>
       </c>
       <c r="D103" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E103" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F103" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G103" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H103" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C106" t="n">
         <v>3.387</v>
       </c>
       <c r="D106" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="E106" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="F106" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="G106" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H106" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>225</v>
+      </c>
+      <c r="I106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C109" t="n">
         <v>2.364</v>
       </c>
       <c r="D109" t="s">
+        <v>164</v>
+      </c>
+      <c r="E109" t="s">
+        <v>78</v>
+      </c>
+      <c r="F109" t="s">
         <v>150</v>
       </c>
-      <c r="E109" t="s">
-        <v>72</v>
-      </c>
-      <c r="F109" t="s">
-        <v>137</v>
-      </c>
       <c r="G109" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H109" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C112" t="n">
         <v>3.067</v>
       </c>
       <c r="D112" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="E112" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F112" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G112" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C115" t="n">
         <v>2.783</v>
       </c>
       <c r="D115" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G115" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="B118" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C118" t="n">
         <v>3.4</v>
       </c>
       <c r="D118" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G118" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H118" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I118" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="B121" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C121" t="n">
         <v>3.562</v>
       </c>
       <c r="D121" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E121" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="G121" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H121" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="B124" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C124" t="n">
         <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E124" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G124" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H124" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C125" t="n">
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E125" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G125" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H125" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E128" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G128" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H128" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I128" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="C131" t="n">
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E131" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G131" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H131" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C134" t="n">
         <v>3.9445</v>
       </c>
       <c r="D134" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="E134" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G134" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C137" t="n">
         <v>3.6</v>
       </c>
       <c r="D137" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E137" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G137" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H137" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C140" t="n">
         <v>3.4282</v>
       </c>
       <c r="D140" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="E140" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G140" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H140" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C143" t="n">
         <v>2.2845</v>
       </c>
       <c r="D143" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="E143" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G143" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H143" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I143" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="C146" t="n">
         <v>2.884</v>
       </c>
       <c r="D146" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E146" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="F146" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="G146" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H146" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>272</v>
+      </c>
+      <c r="I146" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="C149" t="n">
         <v>2.6665</v>
       </c>
       <c r="D149" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="E149" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="F149" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G149" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="H149" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>277</v>
+      </c>
+      <c r="I149" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C152" t="n">
         <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="E152" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="F152" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="G152" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H152" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="B155" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E155" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H155" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E158" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F158" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G158" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H158" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C161" t="n">
         <v>2.697</v>
       </c>
       <c r="D161" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E161" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="F161" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G161" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="H161" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>291</v>
+      </c>
+      <c r="I161" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="C164" t="n">
         <v>2.891</v>
       </c>
       <c r="D164" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="E164" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F164" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="G164" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="H164" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I164" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="C165" t="n">
         <v>2.915</v>
       </c>
       <c r="D165" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="E165" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="F165" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="G165" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="H165" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>303</v>
+      </c>
+      <c r="I165" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="C166" t="n">
         <v>3.288</v>
       </c>
       <c r="D166" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="E166" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="F166" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="G166" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="H166" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I166" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="C169" t="n">
         <v>3.231</v>
       </c>
       <c r="D169" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E169" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F169" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="G169" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H169" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="C170" t="n">
         <v>2.398</v>
       </c>
       <c r="D170" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E170" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="H170" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>317</v>
+      </c>
+      <c r="I170" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="B171" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="C171" t="n">
         <v>2.6205</v>
       </c>
       <c r="D171" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="E171" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="F171" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="G171" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="H171" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>324</v>
+      </c>
+      <c r="I171" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="B174" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="C174" t="n">
         <v>3.4797</v>
       </c>
       <c r="D174" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="E174" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="G174" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="H174" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>330</v>
+      </c>
+      <c r="I174" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="B177" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="C177" t="n">
         <v>3.1565</v>
       </c>
       <c r="D177" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="E177" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G177" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H177" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I177" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="B180" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="C180" t="n">
         <v>3.1335</v>
       </c>
       <c r="D180" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E180" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F180" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="G180" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H180" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I180" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="B183" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="C183" t="n">
         <v>3.7015</v>
       </c>
       <c r="D183" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="E183" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="G183" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H183" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="B186" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="C186" t="n">
         <v>3.2835</v>
       </c>
       <c r="D186" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="E186" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F186" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="G186" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="H186" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="B189" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="C189" t="n">
         <v>3.5</v>
       </c>
       <c r="D189" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E189" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G189" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H189" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="B190" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="C190" t="n">
         <v>3.629</v>
       </c>
       <c r="D190" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="E190" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="F190" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G190" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H190" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I190" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="C193" t="n">
         <v>3.412</v>
       </c>
       <c r="D193" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="E193" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="F193" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="G193" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H193" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="B196" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="C196" t="n">
         <v>3.6547</v>
       </c>
       <c r="D196" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="E196" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F196" t="s">
-        <v>331</v>
+        <v>214</v>
       </c>
       <c r="G196" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H196" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="B199" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="C199" t="n">
         <v>4</v>
       </c>
       <c r="D199" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E199" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F199" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H199" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="I199" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
